--- a/data/IJmuiden.xlsx
+++ b/data/IJmuiden.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABEACE02EC05B39F5F165ADE5899" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3226745C-9B78-4722-87FC-A77972E4F6D8}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_F25DC773A252ABEACE02EC05B39F5F165ADE5899" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{53320736-944B-4E2A-BCA6-EA0DC29A4544}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>experiment</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>hr/H</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +432,7 @@
     <col min="12" max="13" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="N1" t="s">
         <v>2</v>
       </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,8 +522,11 @@
       <c r="N2" t="s">
         <v>6</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,8 +575,11 @@
         <f>L3*M3</f>
         <v>0.18348235294117646</v>
       </c>
+      <c r="O3">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,8 +628,11 @@
         <f t="shared" ref="N4:N6" si="5">L4*M4</f>
         <v>0.25402142857142856</v>
       </c>
+      <c r="O4">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,8 +681,11 @@
         <f t="shared" si="5"/>
         <v>0.20278461538461537</v>
       </c>
+      <c r="O5">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -715,6 +733,9 @@
       <c r="N6">
         <f t="shared" si="5"/>
         <v>0.21948064516129034</v>
+      </c>
+      <c r="O6">
+        <v>0.17499999999999999</v>
       </c>
     </row>
   </sheetData>
